--- a/Data Exploration/TestPHP/Sanika-Crop_Rotation.xlsx
+++ b/Data Exploration/TestPHP/Sanika-Crop_Rotation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cornd\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e053c53d61b8413/Documents/GitHub/Farmer-Asset-Mapping/Data Exploration/TestPHP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8482F56-735C-4DF6-B108-CF9E289C26F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E8482F56-735C-4DF6-B108-CF9E289C26F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D49EF080-1BB9-4D94-A2C1-E80519611CA3}"/>
   <bookViews>
-    <workbookView xWindow="29715" yWindow="915" windowWidth="21600" windowHeight="11325" xr2:uid="{92FA9E2E-6CFF-49E3-A78A-9531FD6C6D44}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92FA9E2E-6CFF-49E3-A78A-9531FD6C6D44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="75">
   <si>
     <t>Peas</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Radish</t>
   </si>
   <si>
-    <t>Cowpea</t>
-  </si>
-  <si>
     <t>Mustard</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>Triticale (terminate)</t>
   </si>
   <si>
-    <t>Cowpea (leave)</t>
-  </si>
-  <si>
     <t>May-August</t>
   </si>
   <si>
@@ -223,9 +217,6 @@
     <t>March-August</t>
   </si>
   <si>
-    <t>Pumpkin/Winter Squash</t>
-  </si>
-  <si>
     <t>June-November</t>
   </si>
   <si>
@@ -257,6 +248,18 @@
   </si>
   <si>
     <t>November-May</t>
+  </si>
+  <si>
+    <t>Squash</t>
+  </si>
+  <si>
+    <t>Asparagus</t>
+  </si>
+  <si>
+    <t>Asparagus (leave)</t>
+  </si>
+  <si>
+    <t>Watermelon</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,21 +625,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -645,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -659,12 +662,12 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -673,26 +676,26 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -701,12 +704,12 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -715,12 +718,12 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -729,12 +732,12 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -743,12 +746,12 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -757,21 +760,21 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -785,12 +788,12 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -799,26 +802,26 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -827,7 +830,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -841,7 +844,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -855,12 +858,12 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -869,12 +872,12 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -883,12 +886,12 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -897,21 +900,21 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>33</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -925,12 +928,12 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -939,26 +942,26 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
         <v>37</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -967,12 +970,12 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -981,12 +984,12 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -995,26 +998,26 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
         <v>11</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1023,12 +1026,12 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1037,7 +1040,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1051,12 +1054,12 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1065,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1079,12 +1082,12 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1093,26 +1096,26 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
         <v>45</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -1121,12 +1124,12 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -1135,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1149,12 +1152,12 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -1163,12 +1166,12 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1177,12 +1180,12 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -1191,26 +1194,26 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
         <v>52</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1219,12 +1222,12 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -1233,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1247,12 +1250,12 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -1261,12 +1264,12 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -1275,12 +1278,12 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -1289,12 +1292,12 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -1303,12 +1306,12 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -1317,12 +1320,12 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -1331,12 +1334,12 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -1345,12 +1348,12 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -1359,12 +1362,12 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -1373,7 +1376,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1387,12 +1390,12 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -1401,12 +1404,12 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -1415,12 +1418,12 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -1429,12 +1432,12 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -1443,12 +1446,12 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>5</v>
@@ -1457,12 +1460,12 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -1471,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1485,12 +1488,12 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -1499,12 +1502,12 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -1513,12 +1516,12 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -1527,12 +1530,12 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -1541,12 +1544,12 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -1555,12 +1558,12 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -1569,12 +1572,12 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -1583,12 +1586,12 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -1597,12 +1600,12 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -1611,12 +1614,12 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -1625,12 +1628,12 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -1639,12 +1642,12 @@
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -1653,12 +1656,12 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -1667,7 +1670,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
